--- a/data/Trend of Job Vacancies.xlsx
+++ b/data/Trend of Job Vacancies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{3673BCD0-D506-486B-8930-601E28E98F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FBDE9D2-428E-4EA9-9748-FC1DA9339E99}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3673BCD0-D506-486B-8930-601E28E98F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A686AA-7D7A-44B8-BE3A-1F311EDE6ED6}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{9F281206-C9DC-4E28-8C28-9B40EC867410}"/>
   </bookViews>
@@ -36,543 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Aug-24</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>May-24</t>
-  </si>
-  <si>
-    <t>Feb-24</t>
-  </si>
-  <si>
-    <t>Nov-23</t>
-  </si>
-  <si>
-    <t>Aug-23</t>
-  </si>
-  <si>
-    <t>May-23</t>
-  </si>
-  <si>
-    <t>Feb-23</t>
-  </si>
-  <si>
-    <t>Nov-22</t>
-  </si>
-  <si>
-    <t>Aug-22</t>
-  </si>
-  <si>
-    <t>May-22</t>
-  </si>
-  <si>
-    <t>Feb-22</t>
-  </si>
-  <si>
-    <t>Nov-21</t>
-  </si>
-  <si>
-    <t>Aug-21</t>
-  </si>
-  <si>
-    <t>May-21</t>
-  </si>
-  <si>
-    <t>Feb-21</t>
-  </si>
-  <si>
-    <t>Nov-20</t>
-  </si>
-  <si>
-    <t>Aug-20</t>
-  </si>
-  <si>
-    <t>May-20</t>
-  </si>
-  <si>
-    <t>Feb-20</t>
-  </si>
-  <si>
-    <t>Nov-19</t>
-  </si>
-  <si>
-    <t>Aug-19</t>
-  </si>
-  <si>
-    <t>May-19</t>
-  </si>
-  <si>
-    <t>Feb-19</t>
-  </si>
-  <si>
-    <t>Nov-18</t>
-  </si>
-  <si>
-    <t>Aug-18</t>
-  </si>
-  <si>
-    <t>May-18</t>
-  </si>
-  <si>
-    <t>Feb-18</t>
-  </si>
-  <si>
-    <t>Nov-17</t>
-  </si>
-  <si>
-    <t>Aug-17</t>
-  </si>
-  <si>
-    <t>May-17</t>
-  </si>
-  <si>
-    <t>Feb-17</t>
-  </si>
-  <si>
-    <t>Nov-16</t>
-  </si>
-  <si>
-    <t>Aug-16</t>
-  </si>
-  <si>
-    <t>May-16</t>
-  </si>
-  <si>
-    <t>Feb-16</t>
-  </si>
-  <si>
-    <t>Nov-15</t>
-  </si>
-  <si>
-    <t>Aug-15</t>
-  </si>
-  <si>
-    <t>May-15</t>
-  </si>
-  <si>
-    <t>Feb-15</t>
-  </si>
-  <si>
-    <t>Nov-14</t>
-  </si>
-  <si>
-    <t>Aug-14</t>
-  </si>
-  <si>
-    <t>May-14</t>
-  </si>
-  <si>
-    <t>Feb-14</t>
-  </si>
-  <si>
-    <t>Nov-13</t>
-  </si>
-  <si>
-    <t>Aug-13</t>
-  </si>
-  <si>
-    <t>May-13</t>
-  </si>
-  <si>
-    <t>Feb-13</t>
-  </si>
-  <si>
-    <t>Nov-12</t>
-  </si>
-  <si>
-    <t>Aug-12</t>
-  </si>
-  <si>
-    <t>May-12</t>
-  </si>
-  <si>
-    <t>Feb-12</t>
-  </si>
-  <si>
-    <t>Nov-11</t>
-  </si>
-  <si>
-    <t>Aug-11</t>
-  </si>
-  <si>
-    <t>May-11</t>
-  </si>
-  <si>
-    <t>Feb-11</t>
-  </si>
-  <si>
-    <t>Nov-10</t>
-  </si>
-  <si>
-    <t>Aug-10</t>
-  </si>
-  <si>
-    <t>May-10</t>
-  </si>
-  <si>
-    <t>Feb-10</t>
-  </si>
-  <si>
-    <t>Nov-09</t>
-  </si>
-  <si>
-    <t>Aug-09</t>
-  </si>
-  <si>
-    <t>May-09</t>
-  </si>
-  <si>
-    <t>Feb-09</t>
-  </si>
-  <si>
-    <t>Nov-08</t>
-  </si>
-  <si>
-    <t>Aug-08</t>
-  </si>
-  <si>
-    <t>May-08</t>
-  </si>
-  <si>
-    <t>Feb-08</t>
-  </si>
-  <si>
-    <t>Nov-07</t>
-  </si>
-  <si>
-    <t>Aug-07</t>
-  </si>
-  <si>
-    <t>May-07</t>
-  </si>
-  <si>
-    <t>Feb-07</t>
-  </si>
-  <si>
-    <t>Nov-06</t>
-  </si>
-  <si>
-    <t>Aug-06</t>
-  </si>
-  <si>
-    <t>May-06</t>
-  </si>
-  <si>
-    <t>Feb-06</t>
-  </si>
-  <si>
-    <t>Nov-05</t>
-  </si>
-  <si>
-    <t>Aug-05</t>
-  </si>
-  <si>
-    <t>May-05</t>
-  </si>
-  <si>
-    <t>Feb-05</t>
-  </si>
-  <si>
-    <t>Nov-04</t>
-  </si>
-  <si>
-    <t>Aug-04</t>
-  </si>
-  <si>
-    <t>May-04</t>
-  </si>
-  <si>
-    <t>Feb-04</t>
-  </si>
-  <si>
-    <t>Nov-03</t>
-  </si>
-  <si>
-    <t>Aug-03</t>
-  </si>
-  <si>
-    <t>May-03</t>
-  </si>
-  <si>
-    <t>Feb-03</t>
-  </si>
-  <si>
-    <t>Nov-02</t>
-  </si>
-  <si>
-    <t>Aug-02</t>
-  </si>
-  <si>
-    <t>May-02</t>
-  </si>
-  <si>
-    <t>Feb-02</t>
-  </si>
-  <si>
-    <t>Nov-01</t>
-  </si>
-  <si>
-    <t>Aug-01</t>
-  </si>
-  <si>
-    <t>May-01</t>
-  </si>
-  <si>
-    <t>Feb-01</t>
-  </si>
-  <si>
-    <t>Nov-00</t>
-  </si>
-  <si>
-    <t>Aug-00</t>
-  </si>
-  <si>
-    <t>May-00</t>
-  </si>
-  <si>
-    <t>Feb-00</t>
-  </si>
-  <si>
-    <t>Nov-99</t>
-  </si>
-  <si>
-    <t>Aug-99</t>
-  </si>
-  <si>
-    <t>May-99</t>
-  </si>
-  <si>
-    <t>Feb-99</t>
-  </si>
-  <si>
-    <t>Nov-98</t>
-  </si>
-  <si>
-    <t>Aug-98</t>
-  </si>
-  <si>
-    <t>May-98</t>
-  </si>
-  <si>
-    <t>Feb-98</t>
-  </si>
-  <si>
-    <t>Nov-97</t>
-  </si>
-  <si>
-    <t>Aug-97</t>
-  </si>
-  <si>
-    <t>May-97</t>
-  </si>
-  <si>
-    <t>Feb-97</t>
-  </si>
-  <si>
-    <t>Nov-96</t>
-  </si>
-  <si>
-    <t>Aug-96</t>
-  </si>
-  <si>
-    <t>May-96</t>
-  </si>
-  <si>
-    <t>Feb-96</t>
-  </si>
-  <si>
-    <t>Nov-95</t>
-  </si>
-  <si>
-    <t>Aug-95</t>
-  </si>
-  <si>
-    <t>May-95</t>
-  </si>
-  <si>
-    <t>Feb-95</t>
-  </si>
-  <si>
-    <t>Nov-94</t>
-  </si>
-  <si>
-    <t>Aug-94</t>
-  </si>
-  <si>
-    <t>May-94</t>
-  </si>
-  <si>
-    <t>Feb-94</t>
-  </si>
-  <si>
-    <t>Nov-93</t>
-  </si>
-  <si>
-    <t>Aug-93</t>
-  </si>
-  <si>
-    <t>May-93</t>
-  </si>
-  <si>
-    <t>Feb-93</t>
-  </si>
-  <si>
-    <t>Nov-92</t>
-  </si>
-  <si>
-    <t>Aug-92</t>
-  </si>
-  <si>
-    <t>May-92</t>
-  </si>
-  <si>
-    <t>Feb-92</t>
-  </si>
-  <si>
-    <t>Nov-91</t>
-  </si>
-  <si>
-    <t>Aug-91</t>
-  </si>
-  <si>
-    <t>May-91</t>
-  </si>
-  <si>
-    <t>Feb-91</t>
-  </si>
-  <si>
-    <t>Nov-90</t>
-  </si>
-  <si>
-    <t>Aug-90</t>
-  </si>
-  <si>
-    <t>May-90</t>
-  </si>
-  <si>
-    <t>Feb-90</t>
-  </si>
-  <si>
-    <t>Nov-89</t>
-  </si>
-  <si>
-    <t>Aug-89</t>
-  </si>
-  <si>
-    <t>May-89</t>
-  </si>
-  <si>
-    <t>Feb-89</t>
-  </si>
-  <si>
-    <t>Nov-88</t>
-  </si>
-  <si>
-    <t>Aug-88</t>
-  </si>
-  <si>
-    <t>May-88</t>
-  </si>
-  <si>
-    <t>Feb-88</t>
-  </si>
-  <si>
-    <t>Nov-87</t>
-  </si>
-  <si>
-    <t>Aug-87</t>
-  </si>
-  <si>
-    <t>May-87</t>
-  </si>
-  <si>
-    <t>Feb-87</t>
-  </si>
-  <si>
-    <t>Nov-86</t>
-  </si>
-  <si>
-    <t>Aug-86</t>
-  </si>
-  <si>
-    <t>May-86</t>
-  </si>
-  <si>
-    <t>Feb-86</t>
-  </si>
-  <si>
-    <t>Nov-85</t>
-  </si>
-  <si>
-    <t>Aug-85</t>
-  </si>
-  <si>
-    <t>May-85</t>
-  </si>
-  <si>
-    <t>Feb-85</t>
-  </si>
-  <si>
-    <t>Nov-84</t>
-  </si>
-  <si>
-    <t>Aug-84</t>
-  </si>
-  <si>
-    <t>May-84</t>
-  </si>
-  <si>
-    <t>Feb-84</t>
-  </si>
-  <si>
-    <t>Nov-83</t>
-  </si>
-  <si>
-    <t>Aug-83</t>
-  </si>
-  <si>
-    <t>May-83</t>
-  </si>
-  <si>
-    <t>Feb-83</t>
-  </si>
-  <si>
-    <t>Nov-82</t>
-  </si>
-  <si>
-    <t>Aug-82</t>
-  </si>
-  <si>
-    <t>May-82</t>
-  </si>
-  <si>
-    <t>Feb-82</t>
-  </si>
-  <si>
-    <t>Nov-81</t>
-  </si>
-  <si>
-    <t>Aug-81</t>
-  </si>
-  <si>
-    <t>May-81</t>
-  </si>
-  <si>
-    <t>Feb-81</t>
-  </si>
-  <si>
-    <t>Nov-80</t>
-  </si>
-  <si>
-    <t>Aug-80</t>
-  </si>
-  <si>
-    <t>Job vacancies ('000)</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Job vacancies</t>
   </si>
 </sst>
 </file>
@@ -627,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,6 +112,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,1437 +438,1437 @@
   <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="1" t="s">
-        <v>176</v>
+      <c r="A2" s="4">
+        <v>29434</v>
       </c>
       <c r="B2" s="2">
-        <v>37.5</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="1" t="s">
-        <v>175</v>
+      <c r="A3" s="4">
+        <v>29526</v>
       </c>
       <c r="B3" s="2">
-        <v>38.700000000000003</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="1" t="s">
-        <v>174</v>
+      <c r="A4" s="4">
+        <v>29618</v>
       </c>
       <c r="B4" s="2">
-        <v>37.4</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="1" t="s">
-        <v>173</v>
+      <c r="A5" s="4">
+        <v>29707</v>
       </c>
       <c r="B5" s="2">
-        <v>44</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="1" t="s">
-        <v>172</v>
+      <c r="A6" s="4">
+        <v>29799</v>
       </c>
       <c r="B6" s="2">
-        <v>44.5</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="1" t="s">
-        <v>171</v>
+      <c r="A7" s="4">
+        <v>29891</v>
       </c>
       <c r="B7" s="2">
-        <v>41.7</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="1" t="s">
-        <v>170</v>
+      <c r="A8" s="4">
+        <v>29983</v>
       </c>
       <c r="B8" s="2">
-        <v>37.299999999999997</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="1" t="s">
-        <v>169</v>
+      <c r="A9" s="4">
+        <v>30072</v>
       </c>
       <c r="B9" s="2">
-        <v>30.3</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="1" t="s">
-        <v>168</v>
+      <c r="A10" s="4">
+        <v>30164</v>
       </c>
       <c r="B10" s="2">
-        <v>26.8</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="1" t="s">
-        <v>167</v>
+      <c r="A11" s="4">
+        <v>30256</v>
       </c>
       <c r="B11" s="2">
-        <v>30.3</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="1" t="s">
-        <v>166</v>
+      <c r="A12" s="4">
+        <v>30348</v>
       </c>
       <c r="B12" s="2">
-        <v>29.7</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="1" t="s">
-        <v>165</v>
+      <c r="A13" s="4">
+        <v>30437</v>
       </c>
       <c r="B13" s="2">
-        <v>32.4</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="1" t="s">
-        <v>164</v>
+      <c r="A14" s="4">
+        <v>30529</v>
       </c>
       <c r="B14" s="2">
-        <v>33.6</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="1" t="s">
-        <v>163</v>
+      <c r="A15" s="4">
+        <v>30621</v>
       </c>
       <c r="B15" s="2">
-        <v>36.299999999999997</v>
+        <v>36300</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="1" t="s">
-        <v>162</v>
+      <c r="A16" s="4">
+        <v>30713</v>
       </c>
       <c r="B16" s="2">
-        <v>44.6</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="1" t="s">
-        <v>161</v>
+      <c r="A17" s="4">
+        <v>30803</v>
       </c>
       <c r="B17" s="2">
-        <v>40.299999999999997</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="1" t="s">
-        <v>160</v>
+      <c r="A18" s="4">
+        <v>30895</v>
       </c>
       <c r="B18" s="2">
-        <v>48.5</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="1" t="s">
-        <v>159</v>
+      <c r="A19" s="4">
+        <v>30987</v>
       </c>
       <c r="B19" s="2">
-        <v>49.8</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" s="1" t="s">
-        <v>158</v>
+      <c r="A20" s="4">
+        <v>31079</v>
       </c>
       <c r="B20" s="2">
-        <v>60.4</v>
+        <v>60400</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="1" t="s">
-        <v>157</v>
+      <c r="A21" s="4">
+        <v>31168</v>
       </c>
       <c r="B21" s="2">
-        <v>68.599999999999994</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" s="1" t="s">
-        <v>156</v>
+      <c r="A22" s="4">
+        <v>31260</v>
       </c>
       <c r="B22" s="2">
-        <v>67.2</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A23" s="1" t="s">
-        <v>155</v>
+      <c r="A23" s="4">
+        <v>31352</v>
       </c>
       <c r="B23" s="2">
-        <v>66.2</v>
+        <v>66200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A24" s="1" t="s">
-        <v>154</v>
+      <c r="A24" s="4">
+        <v>31444</v>
       </c>
       <c r="B24" s="2">
-        <v>64.8</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="1" t="s">
-        <v>153</v>
+      <c r="A25" s="4">
+        <v>31533</v>
       </c>
       <c r="B25" s="2">
-        <v>66.099999999999994</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="1" t="s">
-        <v>152</v>
+      <c r="A26" s="4">
+        <v>31625</v>
       </c>
       <c r="B26" s="2">
-        <v>61.1</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A27" s="1" t="s">
-        <v>151</v>
+      <c r="A27" s="4">
+        <v>31717</v>
       </c>
       <c r="B27" s="2">
-        <v>66.3</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" s="1" t="s">
-        <v>150</v>
+      <c r="A28" s="4">
+        <v>31809</v>
       </c>
       <c r="B28" s="2">
-        <v>69.5</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="1" t="s">
-        <v>149</v>
+      <c r="A29" s="4">
+        <v>31898</v>
       </c>
       <c r="B29" s="2">
-        <v>66.900000000000006</v>
+        <v>66900</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="1" t="s">
-        <v>148</v>
+      <c r="A30" s="4">
+        <v>31990</v>
       </c>
       <c r="B30" s="2">
-        <v>70.099999999999994</v>
+        <v>70100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="1" t="s">
-        <v>147</v>
+      <c r="A31" s="4">
+        <v>32082</v>
       </c>
       <c r="B31" s="2">
-        <v>66.900000000000006</v>
+        <v>66900</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="1" t="s">
-        <v>146</v>
+      <c r="A32" s="4">
+        <v>32174</v>
       </c>
       <c r="B32" s="2">
-        <v>70.2</v>
+        <v>70200</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="1" t="s">
-        <v>145</v>
+      <c r="A33" s="4">
+        <v>32264</v>
       </c>
       <c r="B33" s="2">
-        <v>74.400000000000006</v>
+        <v>74400</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="1" t="s">
-        <v>144</v>
+      <c r="A34" s="4">
+        <v>32356</v>
       </c>
       <c r="B34" s="2">
-        <v>80.8</v>
+        <v>80800</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="1" t="s">
-        <v>143</v>
+      <c r="A35" s="4">
+        <v>32448</v>
       </c>
       <c r="B35" s="2">
-        <v>85.1</v>
+        <v>85100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="1" t="s">
-        <v>142</v>
+      <c r="A36" s="4">
+        <v>32540</v>
       </c>
       <c r="B36" s="2">
-        <v>84.7</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" s="1" t="s">
-        <v>141</v>
+      <c r="A37" s="4">
+        <v>32629</v>
       </c>
       <c r="B37" s="2">
-        <v>93.7</v>
+        <v>93700</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="1" t="s">
-        <v>140</v>
+      <c r="A38" s="4">
+        <v>32721</v>
       </c>
       <c r="B38" s="2">
-        <v>76.599999999999994</v>
+        <v>76600</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="1" t="s">
-        <v>139</v>
+      <c r="A39" s="4">
+        <v>32813</v>
       </c>
       <c r="B39" s="2">
-        <v>79.2</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" s="1" t="s">
-        <v>138</v>
+      <c r="A40" s="4">
+        <v>32905</v>
       </c>
       <c r="B40" s="2">
-        <v>71.900000000000006</v>
+        <v>71900</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A41" s="1" t="s">
-        <v>137</v>
+      <c r="A41" s="4">
+        <v>32994</v>
       </c>
       <c r="B41" s="2">
-        <v>64</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A42" s="1" t="s">
-        <v>136</v>
+      <c r="A42" s="4">
+        <v>33086</v>
       </c>
       <c r="B42" s="2">
-        <v>56.7</v>
+        <v>56700</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A43" s="1" t="s">
-        <v>135</v>
+      <c r="A43" s="4">
+        <v>33178</v>
       </c>
       <c r="B43" s="2">
-        <v>41.6</v>
+        <v>41600</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A44" s="1" t="s">
-        <v>134</v>
+      <c r="A44" s="4">
+        <v>33270</v>
       </c>
       <c r="B44" s="2">
-        <v>33.799999999999997</v>
+        <v>33800</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" s="1" t="s">
-        <v>133</v>
+      <c r="A45" s="4">
+        <v>33359</v>
       </c>
       <c r="B45" s="2">
-        <v>31.6</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A46" s="1" t="s">
-        <v>132</v>
+      <c r="A46" s="4">
+        <v>33451</v>
       </c>
       <c r="B46" s="2">
-        <v>29.8</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A47" s="1" t="s">
-        <v>131</v>
+      <c r="A47" s="4">
+        <v>33543</v>
       </c>
       <c r="B47" s="2">
-        <v>30.9</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A48" s="1" t="s">
-        <v>130</v>
+      <c r="A48" s="4">
+        <v>33635</v>
       </c>
       <c r="B48" s="2">
-        <v>33.299999999999997</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" s="1" t="s">
-        <v>129</v>
+      <c r="A49" s="4">
+        <v>33725</v>
       </c>
       <c r="B49" s="2">
-        <v>31.9</v>
+        <v>31900</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A50" s="1" t="s">
-        <v>128</v>
+      <c r="A50" s="4">
+        <v>33817</v>
       </c>
       <c r="B50" s="2">
-        <v>33</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A51" s="1" t="s">
-        <v>127</v>
+      <c r="A51" s="4">
+        <v>33909</v>
       </c>
       <c r="B51" s="2">
-        <v>36.9</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" s="1" t="s">
-        <v>126</v>
+      <c r="A52" s="4">
+        <v>34001</v>
       </c>
       <c r="B52" s="2">
-        <v>37</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A53" s="1" t="s">
-        <v>125</v>
+      <c r="A53" s="4">
+        <v>34090</v>
       </c>
       <c r="B53" s="2">
-        <v>42</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A54" s="1" t="s">
-        <v>124</v>
+      <c r="A54" s="4">
+        <v>34182</v>
       </c>
       <c r="B54" s="2">
-        <v>46.2</v>
+        <v>46200</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" s="1" t="s">
-        <v>123</v>
+      <c r="A55" s="4">
+        <v>34274</v>
       </c>
       <c r="B55" s="2">
-        <v>48.5</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" s="1" t="s">
-        <v>122</v>
+      <c r="A56" s="4">
+        <v>34366</v>
       </c>
       <c r="B56" s="2">
-        <v>57.6</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" s="1" t="s">
-        <v>121</v>
+      <c r="A57" s="4">
+        <v>34455</v>
       </c>
       <c r="B57" s="2">
-        <v>69.5</v>
+        <v>69500</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" s="1" t="s">
-        <v>120</v>
+      <c r="A58" s="4">
+        <v>34547</v>
       </c>
       <c r="B58" s="2">
-        <v>82.2</v>
+        <v>82200</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" s="1" t="s">
-        <v>119</v>
+      <c r="A59" s="4">
+        <v>34639</v>
       </c>
       <c r="B59" s="2">
-        <v>85.6</v>
+        <v>85600</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" s="1" t="s">
-        <v>118</v>
+      <c r="A60" s="4">
+        <v>34731</v>
       </c>
       <c r="B60" s="2">
-        <v>72.7</v>
+        <v>72700</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A61" s="1" t="s">
-        <v>117</v>
+      <c r="A61" s="4">
+        <v>34820</v>
       </c>
       <c r="B61" s="2">
-        <v>77.3</v>
+        <v>77300</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A62" s="1" t="s">
-        <v>116</v>
+      <c r="A62" s="4">
+        <v>34912</v>
       </c>
       <c r="B62" s="2">
-        <v>74.599999999999994</v>
+        <v>74600</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A63" s="1" t="s">
-        <v>115</v>
+      <c r="A63" s="4">
+        <v>35004</v>
       </c>
       <c r="B63" s="2">
-        <v>72.5</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A64" s="1" t="s">
-        <v>114</v>
+      <c r="A64" s="4">
+        <v>35096</v>
       </c>
       <c r="B64" s="2">
-        <v>81</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" s="1" t="s">
-        <v>113</v>
+      <c r="A65" s="4">
+        <v>35186</v>
       </c>
       <c r="B65" s="2">
-        <v>76.7</v>
+        <v>76700</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A66" s="1" t="s">
-        <v>112</v>
+      <c r="A66" s="4">
+        <v>35278</v>
       </c>
       <c r="B66" s="2">
-        <v>77.5</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" s="1" t="s">
-        <v>111</v>
+      <c r="A67" s="4">
+        <v>35370</v>
       </c>
       <c r="B67" s="2">
-        <v>82.5</v>
+        <v>82500</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" s="1" t="s">
-        <v>110</v>
+      <c r="A68" s="4">
+        <v>35462</v>
       </c>
       <c r="B68" s="2">
-        <v>81.3</v>
+        <v>81300</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" s="1" t="s">
-        <v>109</v>
+      <c r="A69" s="4">
+        <v>35551</v>
       </c>
       <c r="B69" s="2">
-        <v>82.8</v>
+        <v>82800</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A70" s="1" t="s">
-        <v>108</v>
+      <c r="A70" s="4">
+        <v>35643</v>
       </c>
       <c r="B70" s="2">
-        <v>84.9</v>
+        <v>84900</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A71" s="1" t="s">
-        <v>107</v>
+      <c r="A71" s="4">
+        <v>35735</v>
       </c>
       <c r="B71" s="2">
-        <v>90.4</v>
+        <v>90400</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" s="1" t="s">
-        <v>106</v>
+      <c r="A72" s="4">
+        <v>35827</v>
       </c>
       <c r="B72" s="2">
-        <v>98.3</v>
+        <v>98300</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A73" s="1" t="s">
-        <v>105</v>
+      <c r="A73" s="4">
+        <v>35916</v>
       </c>
       <c r="B73" s="2">
-        <v>104</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A74" s="1" t="s">
-        <v>104</v>
+      <c r="A74" s="4">
+        <v>36008</v>
       </c>
       <c r="B74" s="2">
-        <v>89.8</v>
+        <v>89800</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A75" s="1" t="s">
-        <v>103</v>
+      <c r="A75" s="4">
+        <v>36100</v>
       </c>
       <c r="B75" s="2">
-        <v>102</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A76" s="1" t="s">
-        <v>102</v>
+      <c r="A76" s="4">
+        <v>36192</v>
       </c>
       <c r="B76" s="2">
-        <v>87.2</v>
+        <v>87200</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A77" s="1" t="s">
-        <v>101</v>
+      <c r="A77" s="4">
+        <v>36281</v>
       </c>
       <c r="B77" s="2">
-        <v>100.2</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A78" s="1" t="s">
-        <v>100</v>
+      <c r="A78" s="4">
+        <v>36373</v>
       </c>
       <c r="B78" s="2">
-        <v>106.9</v>
+        <v>106900</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A79" s="1" t="s">
-        <v>99</v>
+      <c r="A79" s="4">
+        <v>36465</v>
       </c>
       <c r="B79" s="2">
-        <v>109.6</v>
+        <v>109600</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A80" s="1" t="s">
-        <v>98</v>
+      <c r="A80" s="4">
+        <v>36557</v>
       </c>
       <c r="B80" s="2">
-        <v>118.1</v>
+        <v>118100</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A81" s="1" t="s">
-        <v>97</v>
+      <c r="A81" s="4">
+        <v>36647</v>
       </c>
       <c r="B81" s="2">
-        <v>115.9</v>
+        <v>115900</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" s="1" t="s">
-        <v>96</v>
+      <c r="A82" s="4">
+        <v>36739</v>
       </c>
       <c r="B82" s="2">
-        <v>114.4</v>
+        <v>114400</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" s="1" t="s">
-        <v>95</v>
+      <c r="A83" s="4">
+        <v>36831</v>
       </c>
       <c r="B83" s="2">
-        <v>114.8</v>
+        <v>114800</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" s="1" t="s">
-        <v>94</v>
+      <c r="A84" s="4">
+        <v>36923</v>
       </c>
       <c r="B84" s="2">
-        <v>99.7</v>
+        <v>99700</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A85" s="1" t="s">
-        <v>93</v>
+      <c r="A85" s="4">
+        <v>37012</v>
       </c>
       <c r="B85" s="2">
-        <v>94</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A86" s="1" t="s">
-        <v>92</v>
+      <c r="A86" s="4">
+        <v>37104</v>
       </c>
       <c r="B86" s="2">
-        <v>90.2</v>
+        <v>90200</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A87" s="1" t="s">
-        <v>91</v>
+      <c r="A87" s="4">
+        <v>37196</v>
       </c>
       <c r="B87" s="2">
-        <v>88.5</v>
+        <v>88500</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A88" s="1" t="s">
-        <v>90</v>
+      <c r="A88" s="4">
+        <v>37288</v>
       </c>
       <c r="B88" s="2">
-        <v>90.5</v>
+        <v>90500</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A89" s="1" t="s">
-        <v>89</v>
+      <c r="A89" s="4">
+        <v>37377</v>
       </c>
       <c r="B89" s="2">
-        <v>96.2</v>
+        <v>96200</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
+      <c r="A90" s="4">
+        <v>37469</v>
       </c>
       <c r="B90" s="2">
-        <v>103</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A91" s="1" t="s">
-        <v>87</v>
+      <c r="A91" s="4">
+        <v>37561</v>
       </c>
       <c r="B91" s="2">
-        <v>97.6</v>
+        <v>97600</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A92" s="1" t="s">
-        <v>86</v>
+      <c r="A92" s="4">
+        <v>37653</v>
       </c>
       <c r="B92" s="2">
-        <v>109.7</v>
+        <v>109700</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A93" s="1" t="s">
-        <v>85</v>
+      <c r="A93" s="4">
+        <v>37742</v>
       </c>
       <c r="B93" s="2">
-        <v>104.6</v>
+        <v>104600</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A94" s="1" t="s">
-        <v>84</v>
+      <c r="A94" s="4">
+        <v>37834</v>
       </c>
       <c r="B94" s="2">
-        <v>104.1</v>
+        <v>104100</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A95" s="1" t="s">
-        <v>83</v>
+      <c r="A95" s="4">
+        <v>37926</v>
       </c>
       <c r="B95" s="2">
-        <v>107.5</v>
+        <v>107500</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A96" s="1" t="s">
-        <v>82</v>
+      <c r="A96" s="4">
+        <v>38018</v>
       </c>
       <c r="B96" s="2">
-        <v>103.8</v>
+        <v>103800</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A97" s="1" t="s">
-        <v>81</v>
+      <c r="A97" s="4">
+        <v>38108</v>
       </c>
       <c r="B97" s="2">
-        <v>127.1</v>
+        <v>127100</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A98" s="1" t="s">
-        <v>80</v>
+      <c r="A98" s="4">
+        <v>38200</v>
       </c>
       <c r="B98" s="2">
-        <v>124.6</v>
+        <v>124600</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A99" s="1" t="s">
-        <v>79</v>
+      <c r="A99" s="4">
+        <v>38292</v>
       </c>
       <c r="B99" s="2">
-        <v>139.19999999999999</v>
+        <v>139200</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A100" s="1" t="s">
-        <v>78</v>
+      <c r="A100" s="4">
+        <v>38384</v>
       </c>
       <c r="B100" s="2">
-        <v>146.19999999999999</v>
+        <v>146200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A101" s="1" t="s">
-        <v>77</v>
+      <c r="A101" s="4">
+        <v>38473</v>
       </c>
       <c r="B101" s="2">
-        <v>140.9</v>
+        <v>140900</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A102" s="1" t="s">
-        <v>76</v>
+      <c r="A102" s="4">
+        <v>38565</v>
       </c>
       <c r="B102" s="2">
-        <v>139</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A103" s="1" t="s">
-        <v>75</v>
+      <c r="A103" s="4">
+        <v>38657</v>
       </c>
       <c r="B103" s="2">
-        <v>134.1</v>
+        <v>134100</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A104" s="1" t="s">
-        <v>74</v>
+      <c r="A104" s="4">
+        <v>38749</v>
       </c>
       <c r="B104" s="2">
-        <v>144.30000000000001</v>
+        <v>144300</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A105" s="1" t="s">
-        <v>73</v>
+      <c r="A105" s="4">
+        <v>38838</v>
       </c>
       <c r="B105" s="2">
-        <v>154.1</v>
+        <v>154100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A106" s="1" t="s">
-        <v>72</v>
+      <c r="A106" s="4">
+        <v>38930</v>
       </c>
       <c r="B106" s="2">
-        <v>154.9</v>
+        <v>154900</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A107" s="1" t="s">
-        <v>71</v>
+      <c r="A107" s="4">
+        <v>39022</v>
       </c>
       <c r="B107" s="2">
-        <v>162.1</v>
+        <v>162100</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A108" s="1" t="s">
-        <v>70</v>
+      <c r="A108" s="4">
+        <v>39114</v>
       </c>
       <c r="B108" s="2">
-        <v>160.80000000000001</v>
+        <v>160800</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A109" s="1" t="s">
-        <v>69</v>
+      <c r="A109" s="4">
+        <v>39203</v>
       </c>
       <c r="B109" s="2">
-        <v>168.6</v>
+        <v>168600</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A110" s="1" t="s">
-        <v>68</v>
+      <c r="A110" s="4">
+        <v>39295</v>
       </c>
       <c r="B110" s="2">
-        <v>173.3</v>
+        <v>173300</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A111" s="1" t="s">
-        <v>67</v>
+      <c r="A111" s="4">
+        <v>39387</v>
       </c>
       <c r="B111" s="2">
-        <v>183.3</v>
+        <v>183300</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A112" s="1" t="s">
-        <v>66</v>
+      <c r="A112" s="4">
+        <v>39479</v>
       </c>
       <c r="B112" s="2">
-        <v>178.2</v>
+        <v>178200</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A113" s="1" t="s">
-        <v>65</v>
+      <c r="A113" s="4">
+        <v>39569</v>
       </c>
       <c r="B113" s="2">
-        <v>184.5</v>
+        <v>184500</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A114" s="1" t="s">
-        <v>64</v>
+      <c r="A114" s="4">
+        <v>39661</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A115" s="1" t="s">
-        <v>63</v>
+      <c r="A115" s="4">
+        <v>39753</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A116" s="1" t="s">
-        <v>62</v>
+      <c r="A116" s="4">
+        <v>39845</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A117" s="1" t="s">
-        <v>61</v>
+      <c r="A117" s="4">
+        <v>39934</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A118" s="1" t="s">
-        <v>60</v>
+      <c r="A118" s="4">
+        <v>40026</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A119" s="1" t="s">
-        <v>59</v>
+      <c r="A119" s="4">
+        <v>40118</v>
       </c>
       <c r="B119" s="2">
-        <v>148.9</v>
+        <v>148900</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A120" s="1" t="s">
-        <v>58</v>
+      <c r="A120" s="4">
+        <v>40210</v>
       </c>
       <c r="B120" s="2">
-        <v>168.4</v>
+        <v>168400</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A121" s="1" t="s">
-        <v>57</v>
+      <c r="A121" s="4">
+        <v>40299</v>
       </c>
       <c r="B121" s="2">
-        <v>170.3</v>
+        <v>170300</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A122" s="1" t="s">
-        <v>56</v>
+      <c r="A122" s="4">
+        <v>40391</v>
       </c>
       <c r="B122" s="2">
-        <v>178.6</v>
+        <v>178600</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A123" s="1" t="s">
-        <v>55</v>
+      <c r="A123" s="4">
+        <v>40483</v>
       </c>
       <c r="B123" s="2">
-        <v>191.1</v>
+        <v>191100</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A124" s="1" t="s">
-        <v>54</v>
+      <c r="A124" s="4">
+        <v>40575</v>
       </c>
       <c r="B124" s="2">
-        <v>189.4</v>
+        <v>189400</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A125" s="1" t="s">
-        <v>53</v>
+      <c r="A125" s="4">
+        <v>40664</v>
       </c>
       <c r="B125" s="2">
-        <v>187.3</v>
+        <v>187300</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A126" s="1" t="s">
-        <v>52</v>
+      <c r="A126" s="4">
+        <v>40756</v>
       </c>
       <c r="B126" s="2">
-        <v>183.4</v>
+        <v>183400</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A127" s="1" t="s">
-        <v>51</v>
+      <c r="A127" s="4">
+        <v>40848</v>
       </c>
       <c r="B127" s="2">
-        <v>179.3</v>
+        <v>179300</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A128" s="1" t="s">
-        <v>50</v>
+      <c r="A128" s="4">
+        <v>40940</v>
       </c>
       <c r="B128" s="2">
-        <v>181.8</v>
+        <v>181800</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A129" s="1" t="s">
-        <v>49</v>
+      <c r="A129" s="4">
+        <v>41030</v>
       </c>
       <c r="B129" s="2">
-        <v>178.1</v>
+        <v>178100</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A130" s="1" t="s">
-        <v>48</v>
+      <c r="A130" s="4">
+        <v>41122</v>
       </c>
       <c r="B130" s="2">
-        <v>175.3</v>
+        <v>175300</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A131" s="1" t="s">
-        <v>47</v>
+      <c r="A131" s="4">
+        <v>41214</v>
       </c>
       <c r="B131" s="2">
-        <v>164.8</v>
+        <v>164800</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A132" s="1" t="s">
-        <v>46</v>
+      <c r="A132" s="4">
+        <v>41306</v>
       </c>
       <c r="B132" s="2">
-        <v>149.80000000000001</v>
+        <v>149800</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A133" s="1" t="s">
-        <v>45</v>
+      <c r="A133" s="4">
+        <v>41395</v>
       </c>
       <c r="B133" s="2">
-        <v>143.5</v>
+        <v>143500</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A134" s="1" t="s">
-        <v>44</v>
+      <c r="A134" s="4">
+        <v>41487</v>
       </c>
       <c r="B134" s="2">
-        <v>140.6</v>
+        <v>140600</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A135" s="1" t="s">
-        <v>43</v>
+      <c r="A135" s="4">
+        <v>41579</v>
       </c>
       <c r="B135" s="2">
-        <v>138.9</v>
+        <v>138900</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A136" s="1" t="s">
-        <v>42</v>
+      <c r="A136" s="4">
+        <v>41671</v>
       </c>
       <c r="B136" s="2">
-        <v>143.19999999999999</v>
+        <v>143200</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A137" s="1" t="s">
-        <v>41</v>
+      <c r="A137" s="4">
+        <v>41760</v>
       </c>
       <c r="B137" s="2">
-        <v>147.4</v>
+        <v>147400</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A138" s="1" t="s">
-        <v>40</v>
+      <c r="A138" s="4">
+        <v>41852</v>
       </c>
       <c r="B138" s="2">
-        <v>146.6</v>
+        <v>146600</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A139" s="1" t="s">
-        <v>39</v>
+      <c r="A139" s="4">
+        <v>41944</v>
       </c>
       <c r="B139" s="2">
-        <v>149.69999999999999</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A140" s="1" t="s">
-        <v>38</v>
+      <c r="A140" s="4">
+        <v>42036</v>
       </c>
       <c r="B140" s="2">
-        <v>151.9</v>
+        <v>151900</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A141" s="1" t="s">
-        <v>37</v>
+      <c r="A141" s="4">
+        <v>42125</v>
       </c>
       <c r="B141" s="2">
-        <v>157.80000000000001</v>
+        <v>157800</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A142" s="1" t="s">
-        <v>36</v>
+      <c r="A142" s="4">
+        <v>42217</v>
       </c>
       <c r="B142" s="2">
-        <v>161.5</v>
+        <v>161500</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A143" s="1" t="s">
-        <v>35</v>
+      <c r="A143" s="4">
+        <v>42309</v>
       </c>
       <c r="B143" s="2">
-        <v>167.4</v>
+        <v>167400</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A144" s="1" t="s">
-        <v>34</v>
+      <c r="A144" s="4">
+        <v>42401</v>
       </c>
       <c r="B144" s="2">
-        <v>172.2</v>
+        <v>172200</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A145" s="1" t="s">
-        <v>33</v>
+      <c r="A145" s="4">
+        <v>42491</v>
       </c>
       <c r="B145" s="2">
-        <v>171.3</v>
+        <v>171300</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A146" s="1" t="s">
-        <v>32</v>
+      <c r="A146" s="4">
+        <v>42583</v>
       </c>
       <c r="B146" s="2">
-        <v>177.1</v>
+        <v>177100</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A147" s="1" t="s">
-        <v>31</v>
+      <c r="A147" s="4">
+        <v>42675</v>
       </c>
       <c r="B147" s="2">
-        <v>182.4</v>
+        <v>182400</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A148" s="1" t="s">
-        <v>30</v>
+      <c r="A148" s="4">
+        <v>42767</v>
       </c>
       <c r="B148" s="2">
-        <v>185.1</v>
+        <v>185100</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A149" s="1" t="s">
-        <v>29</v>
+      <c r="A149" s="4">
+        <v>42856</v>
       </c>
       <c r="B149" s="2">
-        <v>185.8</v>
+        <v>185800</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A150" s="1" t="s">
-        <v>28</v>
+      <c r="A150" s="4">
+        <v>42948</v>
       </c>
       <c r="B150" s="2">
-        <v>200.1</v>
+        <v>200100</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A151" s="1" t="s">
-        <v>27</v>
+      <c r="A151" s="4">
+        <v>43040</v>
       </c>
       <c r="B151" s="2">
-        <v>205.1</v>
+        <v>205100</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A152" s="1" t="s">
-        <v>26</v>
+      <c r="A152" s="4">
+        <v>43132</v>
       </c>
       <c r="B152" s="2">
-        <v>213.1</v>
+        <v>213100</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A153" s="1" t="s">
-        <v>25</v>
+      <c r="A153" s="4">
+        <v>43221</v>
       </c>
       <c r="B153" s="2">
-        <v>223.5</v>
+        <v>223500</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A154" s="1" t="s">
-        <v>24</v>
+      <c r="A154" s="4">
+        <v>43313</v>
       </c>
       <c r="B154" s="2">
-        <v>227.1</v>
+        <v>227100</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A155" s="1" t="s">
-        <v>23</v>
+      <c r="A155" s="4">
+        <v>43405</v>
       </c>
       <c r="B155" s="2">
-        <v>232.4</v>
+        <v>232400</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A156" s="1" t="s">
-        <v>22</v>
+      <c r="A156" s="4">
+        <v>43497</v>
       </c>
       <c r="B156" s="2">
-        <v>232.5</v>
+        <v>232500</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A157" s="1" t="s">
-        <v>21</v>
+      <c r="A157" s="4">
+        <v>43586</v>
       </c>
       <c r="B157" s="2">
-        <v>227.2</v>
+        <v>227200</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A158" s="1" t="s">
-        <v>20</v>
+      <c r="A158" s="4">
+        <v>43678</v>
       </c>
       <c r="B158" s="2">
-        <v>221.8</v>
+        <v>221800</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A159" s="1" t="s">
-        <v>19</v>
+      <c r="A159" s="4">
+        <v>43770</v>
       </c>
       <c r="B159" s="2">
-        <v>230.5</v>
+        <v>230500</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A160" s="1" t="s">
-        <v>18</v>
+      <c r="A160" s="4">
+        <v>43862</v>
       </c>
       <c r="B160" s="2">
-        <v>227.4</v>
+        <v>227400</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A161" s="1" t="s">
-        <v>17</v>
+      <c r="A161" s="4">
+        <v>43952</v>
       </c>
       <c r="B161" s="2">
-        <v>128.4</v>
+        <v>128400</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A162" s="1" t="s">
-        <v>16</v>
+      <c r="A162" s="4">
+        <v>44044</v>
       </c>
       <c r="B162" s="2">
-        <v>203.4</v>
+        <v>203400</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A163" s="1" t="s">
-        <v>15</v>
+      <c r="A163" s="4">
+        <v>44136</v>
       </c>
       <c r="B163" s="2">
-        <v>259.89999999999998</v>
+        <v>259899.99999999997</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A164" s="1" t="s">
-        <v>14</v>
+      <c r="A164" s="4">
+        <v>44228</v>
       </c>
       <c r="B164" s="2">
-        <v>287.89999999999998</v>
+        <v>287900</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A165" s="1" t="s">
-        <v>13</v>
+      <c r="A165" s="4">
+        <v>44317</v>
       </c>
       <c r="B165" s="2">
-        <v>366.7</v>
+        <v>366700</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A166" s="1" t="s">
-        <v>12</v>
+      <c r="A166" s="4">
+        <v>44409</v>
       </c>
       <c r="B166" s="2">
-        <v>329.3</v>
+        <v>329300</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A167" s="1" t="s">
-        <v>11</v>
+      <c r="A167" s="4">
+        <v>44501</v>
       </c>
       <c r="B167" s="2">
-        <v>406.2</v>
+        <v>406200</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A168" s="1" t="s">
-        <v>10</v>
+      <c r="A168" s="4">
+        <v>44593</v>
       </c>
       <c r="B168" s="2">
-        <v>423.1</v>
+        <v>423100</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A169" s="1" t="s">
-        <v>9</v>
+      <c r="A169" s="4">
+        <v>44682</v>
       </c>
       <c r="B169" s="2">
-        <v>473.1</v>
+        <v>473100</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A170" s="1" t="s">
-        <v>8</v>
+      <c r="A170" s="4">
+        <v>44774</v>
       </c>
       <c r="B170" s="2">
-        <v>466.5</v>
+        <v>466500</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A171" s="1" t="s">
-        <v>7</v>
+      <c r="A171" s="4">
+        <v>44866</v>
       </c>
       <c r="B171" s="2">
-        <v>450.9</v>
+        <v>450900</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A172" s="1" t="s">
-        <v>6</v>
+      <c r="A172" s="4">
+        <v>44958</v>
       </c>
       <c r="B172" s="2">
-        <v>439.3</v>
+        <v>439300</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A173" s="1" t="s">
-        <v>5</v>
+      <c r="A173" s="4">
+        <v>45047</v>
       </c>
       <c r="B173" s="2">
-        <v>423.7</v>
+        <v>423700</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A174" s="1" t="s">
-        <v>4</v>
+      <c r="A174" s="4">
+        <v>45139</v>
       </c>
       <c r="B174" s="2">
-        <v>398</v>
+        <v>398000</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A175" s="1" t="s">
-        <v>3</v>
+      <c r="A175" s="4">
+        <v>45231</v>
       </c>
       <c r="B175" s="2">
-        <v>384.8</v>
+        <v>384800</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A176" s="1" t="s">
-        <v>2</v>
+      <c r="A176" s="4">
+        <v>45323</v>
       </c>
       <c r="B176" s="2">
-        <v>360.7</v>
+        <v>360700</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A177" s="1" t="s">
-        <v>1</v>
+      <c r="A177" s="4">
+        <v>45413</v>
       </c>
       <c r="B177" s="2">
-        <v>348</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A178" s="1" t="s">
-        <v>0</v>
+      <c r="A178" s="4">
+        <v>45505</v>
       </c>
       <c r="B178" s="2">
-        <v>329.9</v>
+        <v>329900</v>
       </c>
     </row>
     <row r="180" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.75"/>
